--- a/raw_data/Excel_bigram.xlsx
+++ b/raw_data/Excel_bigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaud/Library/CloudStorage/Dropbox/CLESSN/ellipse_maroc/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FEAA23-E029-B74A-843B-0B5534D4D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0D31C8-9DBE-084D-8582-4BA176DB382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="1580" windowWidth="22960" windowHeight="15020" xr2:uid="{547CDAD2-781B-5F46-B1D6-E8080F6198FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="68">
   <si>
     <t>Lieu</t>
   </si>
@@ -138,14 +138,6 @@
     <t xml:space="preserve">Ouverture usines  </t>
   </si>
   <si>
-    <t xml:space="preserve">Terres agricoles 
-Projets d’élevage </t>
-  </si>
-  <si>
-    <t>Terres agricoles 
-Projets d’élevage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Promouvoir tourisme 
 Coopératives féminines </t>
   </si>
@@ -188,12 +180,6 @@
     <t>Terres agricoles 
 Coopératives féminines 
 Projets d'élevage</t>
-  </si>
-  <si>
-    <t>Projets d’élevage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projets d’élevage</t>
   </si>
   <si>
     <t xml:space="preserve"> Promouvoir tourisme</t>
@@ -316,6 +302,13 @@
   <si>
     <t xml:space="preserve">Coopératives féminines
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projets d'élevage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terres agricoles 
+Projets d'élevage </t>
   </si>
 </sst>
 </file>
@@ -706,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A0F5F7-9E72-074F-9C88-DD5EECA60CCA}">
   <dimension ref="D1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,7 +712,7 @@
   <sheetData>
     <row r="1" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -734,7 +727,7 @@
     </row>
     <row r="2" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -748,7 +741,7 @@
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -762,7 +755,7 @@
     </row>
     <row r="4" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
@@ -776,7 +769,7 @@
     </row>
     <row r="5" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -790,7 +783,7 @@
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
@@ -804,13 +797,13 @@
     </row>
     <row r="7" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3"/>
       <c r="K7" s="3"/>
@@ -818,7 +811,7 @@
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
@@ -832,7 +825,7 @@
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -844,7 +837,7 @@
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -858,7 +851,7 @@
     </row>
     <row r="11" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>5</v>
@@ -872,7 +865,7 @@
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -884,7 +877,7 @@
     </row>
     <row r="13" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>2</v>
@@ -898,7 +891,7 @@
     </row>
     <row r="14" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>2</v>
@@ -912,7 +905,7 @@
     </row>
     <row r="15" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2</v>
@@ -926,7 +919,7 @@
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
@@ -940,7 +933,7 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
@@ -952,7 +945,7 @@
     </row>
     <row r="18" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
@@ -966,13 +959,13 @@
     </row>
     <row r="19" spans="4:12" ht="70" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H19" s="3"/>
       <c r="K19" s="3"/>
@@ -980,7 +973,7 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
@@ -994,7 +987,7 @@
     </row>
     <row r="21" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1008,7 +1001,7 @@
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
@@ -1020,7 +1013,7 @@
     </row>
     <row r="23" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2</v>
@@ -1034,7 +1027,7 @@
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>5</v>
@@ -1046,7 +1039,7 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>5</v>
@@ -1060,7 +1053,7 @@
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
@@ -1074,7 +1067,7 @@
     </row>
     <row r="27" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2</v>
@@ -1088,7 +1081,7 @@
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>2</v>
@@ -1100,7 +1093,7 @@
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>2</v>
@@ -1114,7 +1107,7 @@
     </row>
     <row r="30" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>2</v>
@@ -1128,7 +1121,7 @@
     </row>
     <row r="31" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>2</v>
@@ -1142,7 +1135,7 @@
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>2</v>
@@ -1154,7 +1147,7 @@
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
@@ -1166,7 +1159,7 @@
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>2</v>
@@ -1178,13 +1171,13 @@
     </row>
     <row r="35" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
@@ -1192,7 +1185,7 @@
     </row>
     <row r="36" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>2</v>
@@ -1206,7 +1199,7 @@
     </row>
     <row r="37" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>2</v>
@@ -1220,7 +1213,7 @@
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>2</v>
@@ -1232,7 +1225,7 @@
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>2</v>
@@ -1246,7 +1239,7 @@
     </row>
     <row r="40" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>2</v>
@@ -1260,7 +1253,7 @@
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>2</v>
@@ -1274,13 +1267,13 @@
     </row>
     <row r="42" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
@@ -1288,7 +1281,7 @@
     </row>
     <row r="43" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>2</v>
@@ -1302,13 +1295,13 @@
     </row>
     <row r="44" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H44" s="3"/>
       <c r="K44" s="3"/>
@@ -1316,13 +1309,13 @@
     </row>
     <row r="45" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H45" s="3"/>
       <c r="K45" s="3"/>
@@ -1330,7 +1323,7 @@
     </row>
     <row r="46" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>2</v>
@@ -1344,13 +1337,13 @@
     </row>
     <row r="47" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
@@ -1358,13 +1351,13 @@
     </row>
     <row r="48" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H48" s="3"/>
       <c r="K48" s="3"/>
@@ -1372,7 +1365,7 @@
     </row>
     <row r="49" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
@@ -1386,7 +1379,7 @@
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>5</v>
@@ -1398,7 +1391,7 @@
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>5</v>
@@ -1410,13 +1403,13 @@
     </row>
     <row r="52" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H52" s="3"/>
       <c r="K52" s="3"/>
@@ -1424,7 +1417,7 @@
     </row>
     <row r="53" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>5</v>
@@ -1438,7 +1431,7 @@
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>5</v>
@@ -1450,13 +1443,13 @@
     </row>
     <row r="55" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55" s="3"/>
       <c r="K55" s="3"/>
@@ -1464,7 +1457,7 @@
     </row>
     <row r="56" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>5</v>
@@ -1478,13 +1471,13 @@
     </row>
     <row r="57" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H57" s="3"/>
       <c r="K57" s="3"/>
@@ -1492,13 +1485,13 @@
     </row>
     <row r="58" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58" s="3"/>
       <c r="K58" s="3"/>
@@ -1506,13 +1499,13 @@
     </row>
     <row r="59" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H59" s="3"/>
       <c r="K59" s="3"/>
@@ -1520,13 +1513,13 @@
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H60" s="3"/>
       <c r="K60" s="3"/>
@@ -1534,7 +1527,7 @@
     </row>
     <row r="61" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>2</v>
@@ -1548,13 +1541,13 @@
     </row>
     <row r="62" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62" s="3"/>
       <c r="K62" s="3"/>
@@ -1562,13 +1555,13 @@
     </row>
     <row r="63" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
@@ -1576,7 +1569,7 @@
     </row>
     <row r="64" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>2</v>
@@ -1590,7 +1583,7 @@
     </row>
     <row r="65" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>2</v>
@@ -1602,13 +1595,13 @@
     </row>
     <row r="66" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H66" s="3"/>
       <c r="K66" s="3"/>
@@ -1616,7 +1609,7 @@
     </row>
     <row r="67" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>5</v>
@@ -1628,7 +1621,7 @@
     </row>
     <row r="68" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>5</v>
@@ -1642,13 +1635,13 @@
     </row>
     <row r="69" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H69" s="3"/>
       <c r="K69" s="3"/>
@@ -1656,7 +1649,7 @@
     </row>
     <row r="70" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>5</v>
@@ -1668,13 +1661,13 @@
     </row>
     <row r="71" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H71" s="3"/>
       <c r="K71" s="3"/>
@@ -1682,7 +1675,7 @@
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -1694,13 +1687,13 @@
     </row>
     <row r="73" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H73" s="3"/>
       <c r="K73" s="3"/>
@@ -1708,13 +1701,13 @@
     </row>
     <row r="74" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H74" s="3"/>
       <c r="K74" s="3"/>
@@ -1722,13 +1715,13 @@
     </row>
     <row r="75" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H75" s="3"/>
       <c r="K75" s="3"/>
@@ -1736,13 +1729,13 @@
     </row>
     <row r="76" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H76" s="3"/>
       <c r="K76" s="3"/>
@@ -1750,7 +1743,7 @@
     </row>
     <row r="77" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>5</v>
@@ -1764,7 +1757,7 @@
     </row>
     <row r="78" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>5</v>
@@ -1776,7 +1769,7 @@
     </row>
     <row r="79" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>5</v>
@@ -1790,13 +1783,13 @@
     </row>
     <row r="80" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
@@ -1804,7 +1797,7 @@
     </row>
     <row r="81" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
@@ -1818,7 +1811,7 @@
     </row>
     <row r="82" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>5</v>
@@ -1832,7 +1825,7 @@
     </row>
     <row r="83" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
@@ -1846,7 +1839,7 @@
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>5</v>
@@ -1858,7 +1851,7 @@
     </row>
     <row r="85" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>5</v>
@@ -1870,7 +1863,7 @@
     </row>
     <row r="86" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>5</v>
@@ -1882,13 +1875,13 @@
     </row>
     <row r="87" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H87" s="3"/>
       <c r="K87" s="3"/>
@@ -1896,13 +1889,13 @@
     </row>
     <row r="88" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H88" s="3"/>
       <c r="K88" s="3"/>
@@ -1910,13 +1903,13 @@
     </row>
     <row r="89" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H89" s="3"/>
       <c r="K89" s="3"/>
@@ -1924,13 +1917,13 @@
     </row>
     <row r="90" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H90" s="3"/>
       <c r="K90" s="3"/>
@@ -1938,13 +1931,13 @@
     </row>
     <row r="91" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H91" s="3"/>
       <c r="K91" s="3"/>
@@ -1952,13 +1945,13 @@
     </row>
     <row r="92" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H92" s="3"/>
       <c r="K92" s="3"/>
@@ -1966,13 +1959,13 @@
     </row>
     <row r="93" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H93" s="3"/>
       <c r="K93" s="3"/>
@@ -1980,13 +1973,13 @@
     </row>
     <row r="94" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H94" s="3"/>
       <c r="K94" s="3"/>
@@ -1994,13 +1987,13 @@
     </row>
     <row r="95" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H95" s="3"/>
       <c r="K95" s="3"/>
@@ -2008,13 +2001,13 @@
     </row>
     <row r="96" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H96" s="3"/>
       <c r="K96" s="3"/>
@@ -2022,13 +2015,13 @@
     </row>
     <row r="97" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H97" s="3"/>
       <c r="K97" s="3"/>
@@ -2036,13 +2029,13 @@
     </row>
     <row r="98" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H98" s="3"/>
       <c r="K98" s="3"/>
@@ -2050,13 +2043,13 @@
     </row>
     <row r="99" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H99" s="3"/>
       <c r="K99" s="3"/>
@@ -2064,7 +2057,7 @@
     </row>
     <row r="100" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -2076,13 +2069,13 @@
     </row>
     <row r="101" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H101" s="3"/>
       <c r="K101" s="3"/>
@@ -2090,13 +2083,13 @@
     </row>
     <row r="102" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H102" s="3"/>
       <c r="K102" s="3"/>
@@ -2104,7 +2097,7 @@
     </row>
     <row r="103" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>5</v>
@@ -2116,7 +2109,7 @@
     </row>
     <row r="104" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>5</v>
@@ -2130,13 +2123,13 @@
     </row>
     <row r="105" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H105" s="3"/>
       <c r="K105" s="3"/>
@@ -2144,13 +2137,13 @@
     </row>
     <row r="106" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H106" s="3"/>
       <c r="K106" s="3"/>
@@ -2158,7 +2151,7 @@
     </row>
     <row r="107" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>2</v>
@@ -2170,7 +2163,7 @@
     </row>
     <row r="108" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>2</v>
@@ -2182,7 +2175,7 @@
     </row>
     <row r="109" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>2</v>
@@ -2194,7 +2187,7 @@
     </row>
     <row r="110" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>2</v>
@@ -2206,7 +2199,7 @@
     </row>
     <row r="111" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>2</v>
@@ -2218,7 +2211,7 @@
     </row>
     <row r="112" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>2</v>
@@ -2230,7 +2223,7 @@
     </row>
     <row r="113" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>2</v>
@@ -2242,7 +2235,7 @@
     </row>
     <row r="114" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>2</v>
@@ -2254,7 +2247,7 @@
     </row>
     <row r="115" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>2</v>
@@ -2266,7 +2259,7 @@
     </row>
     <row r="116" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>2</v>
@@ -2278,7 +2271,7 @@
     </row>
     <row r="117" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>2</v>
@@ -2290,7 +2283,7 @@
     </row>
     <row r="118" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>2</v>
@@ -2302,7 +2295,7 @@
     </row>
     <row r="119" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>2</v>
@@ -2314,7 +2307,7 @@
     </row>
     <row r="120" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>2</v>
@@ -2326,7 +2319,7 @@
     </row>
     <row r="121" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>2</v>
@@ -2338,7 +2331,7 @@
     </row>
     <row r="122" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>2</v>
@@ -2350,7 +2343,7 @@
     </row>
     <row r="123" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>2</v>
@@ -2362,7 +2355,7 @@
     </row>
     <row r="124" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>2</v>
@@ -2374,7 +2367,7 @@
     </row>
     <row r="125" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>2</v>
@@ -2386,7 +2379,7 @@
     </row>
     <row r="126" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>2</v>
@@ -2398,7 +2391,7 @@
     </row>
     <row r="127" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>2</v>
@@ -2410,7 +2403,7 @@
     </row>
     <row r="128" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>2</v>
@@ -2422,7 +2415,7 @@
     </row>
     <row r="129" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>2</v>
@@ -2434,13 +2427,13 @@
     </row>
     <row r="130" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H130" s="4"/>
       <c r="K130" s="3"/>
@@ -2448,7 +2441,7 @@
     </row>
     <row r="131" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>2</v>
@@ -2460,7 +2453,7 @@
     </row>
     <row r="132" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>2</v>
@@ -2472,7 +2465,7 @@
     </row>
     <row r="133" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>2</v>
@@ -2484,7 +2477,7 @@
     </row>
     <row r="134" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>2</v>
@@ -2496,7 +2489,7 @@
     </row>
     <row r="135" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>2</v>
@@ -2508,7 +2501,7 @@
     </row>
     <row r="136" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>2</v>
@@ -2520,7 +2513,7 @@
     </row>
     <row r="137" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>2</v>
@@ -2532,7 +2525,7 @@
     </row>
     <row r="138" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>2</v>
@@ -2544,7 +2537,7 @@
     </row>
     <row r="139" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>2</v>
@@ -2556,7 +2549,7 @@
     </row>
     <row r="140" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>2</v>
@@ -2570,7 +2563,7 @@
     </row>
     <row r="141" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>2</v>
@@ -2582,7 +2575,7 @@
     </row>
     <row r="142" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>2</v>
@@ -2594,7 +2587,7 @@
     </row>
     <row r="143" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>2</v>
@@ -2606,7 +2599,7 @@
     </row>
     <row r="144" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>2</v>
@@ -2618,7 +2611,7 @@
     </row>
     <row r="145" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>2</v>
@@ -2630,7 +2623,7 @@
     </row>
     <row r="146" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>2</v>
@@ -2642,7 +2635,7 @@
     </row>
     <row r="147" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>2</v>
@@ -2654,7 +2647,7 @@
     </row>
     <row r="148" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>2</v>
@@ -2666,7 +2659,7 @@
     </row>
     <row r="149" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>2</v>
@@ -2678,7 +2671,7 @@
     </row>
     <row r="150" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>2</v>
@@ -2690,7 +2683,7 @@
     </row>
     <row r="151" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>2</v>
@@ -2702,7 +2695,7 @@
     </row>
     <row r="152" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>2</v>
@@ -2714,7 +2707,7 @@
     </row>
     <row r="153" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="4"/>
@@ -2724,7 +2717,7 @@
     </row>
     <row r="154" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>2</v>
@@ -2736,7 +2729,7 @@
     </row>
     <row r="155" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>2</v>
@@ -2748,7 +2741,7 @@
     </row>
     <row r="156" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>2</v>
@@ -2760,7 +2753,7 @@
     </row>
     <row r="157" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>2</v>
@@ -2772,7 +2765,7 @@
     </row>
     <row r="158" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>2</v>
@@ -2784,7 +2777,7 @@
     </row>
     <row r="159" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>2</v>
@@ -2796,7 +2789,7 @@
     </row>
     <row r="160" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>2</v>
@@ -2808,7 +2801,7 @@
     </row>
     <row r="161" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>2</v>
@@ -2820,7 +2813,7 @@
     </row>
     <row r="162" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>2</v>
@@ -2832,7 +2825,7 @@
     </row>
     <row r="163" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>2</v>
@@ -2844,13 +2837,13 @@
     </row>
     <row r="164" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H164" s="4"/>
       <c r="K164" s="3"/>
@@ -2858,7 +2851,7 @@
     </row>
     <row r="165" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>2</v>
@@ -2870,13 +2863,13 @@
     </row>
     <row r="166" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H166" s="4"/>
       <c r="K166" s="3"/>
@@ -2884,7 +2877,7 @@
     </row>
     <row r="167" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>2</v>
@@ -2896,13 +2889,13 @@
     </row>
     <row r="168" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H168" s="4"/>
       <c r="K168" s="3"/>
@@ -2910,7 +2903,7 @@
     </row>
     <row r="169" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>5</v>
@@ -2922,7 +2915,7 @@
     </row>
     <row r="170" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>5</v>
@@ -2934,7 +2927,7 @@
     </row>
     <row r="171" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>5</v>
@@ -2946,7 +2939,7 @@
     </row>
     <row r="172" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>5</v>
@@ -2958,7 +2951,7 @@
     </row>
     <row r="173" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>5</v>
@@ -2970,7 +2963,7 @@
     </row>
     <row r="174" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>5</v>
@@ -2982,7 +2975,7 @@
     </row>
     <row r="175" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>5</v>
@@ -2994,7 +2987,7 @@
     </row>
     <row r="176" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>5</v>
@@ -3006,7 +2999,7 @@
     </row>
     <row r="177" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>5</v>
@@ -3018,7 +3011,7 @@
     </row>
     <row r="178" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>5</v>
@@ -3030,7 +3023,7 @@
     </row>
     <row r="179" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>5</v>
@@ -3042,7 +3035,7 @@
     </row>
     <row r="180" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>5</v>
@@ -3054,7 +3047,7 @@
     </row>
     <row r="181" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>5</v>
@@ -3066,7 +3059,7 @@
     </row>
     <row r="182" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>5</v>
@@ -3078,7 +3071,7 @@
     </row>
     <row r="183" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>5</v>
@@ -3090,13 +3083,13 @@
     </row>
     <row r="184" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H184" s="4"/>
       <c r="K184" s="3"/>
@@ -3104,7 +3097,7 @@
     </row>
     <row r="185" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>5</v>
@@ -3116,7 +3109,7 @@
     </row>
     <row r="186" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>5</v>
@@ -3128,7 +3121,7 @@
     </row>
     <row r="187" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>5</v>
@@ -3140,7 +3133,7 @@
     </row>
     <row r="188" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>5</v>
@@ -3154,7 +3147,7 @@
     </row>
     <row r="189" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>5</v>
@@ -3166,7 +3159,7 @@
     </row>
     <row r="190" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>5</v>
@@ -3178,7 +3171,7 @@
     </row>
     <row r="191" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>5</v>
@@ -3192,7 +3185,7 @@
     </row>
     <row r="192" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>5</v>
@@ -3204,13 +3197,13 @@
     </row>
     <row r="193" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H193" s="4"/>
       <c r="K193" s="3"/>
@@ -3218,7 +3211,7 @@
     </row>
     <row r="194" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>2</v>
@@ -3230,13 +3223,13 @@
     </row>
     <row r="195" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H195" s="4"/>
       <c r="K195" s="3"/>
@@ -3244,13 +3237,13 @@
     </row>
     <row r="196" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H196" s="4"/>
       <c r="K196" s="3"/>
@@ -3258,7 +3251,7 @@
     </row>
     <row r="197" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>2</v>
@@ -3270,13 +3263,13 @@
     </row>
     <row r="198" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H198" s="4"/>
       <c r="K198" s="3"/>
@@ -3284,7 +3277,7 @@
     </row>
     <row r="199" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>2</v>
@@ -3296,7 +3289,7 @@
     </row>
     <row r="200" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>2</v>
@@ -3308,13 +3301,13 @@
     </row>
     <row r="201" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H201" s="4"/>
       <c r="K201" s="3"/>
@@ -3322,7 +3315,7 @@
     </row>
     <row r="202" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>2</v>
@@ -3334,7 +3327,7 @@
     </row>
     <row r="203" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>2</v>
@@ -3346,13 +3339,13 @@
     </row>
     <row r="204" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H204" s="4"/>
       <c r="K204" s="3"/>
@@ -3360,7 +3353,7 @@
     </row>
     <row r="205" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>2</v>
@@ -3372,13 +3365,13 @@
     </row>
     <row r="206" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H206" s="4"/>
       <c r="K206" s="3"/>
@@ -3386,7 +3379,7 @@
     </row>
     <row r="207" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>2</v>

--- a/raw_data/Excel_bigram.xlsx
+++ b/raw_data/Excel_bigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaud/Library/CloudStorage/Dropbox/CLESSN/ellipse_maroc/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0D31C8-9DBE-084D-8582-4BA176DB382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0698CBAC-031F-A84A-AB4E-49E8D35E08F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="1580" windowWidth="22960" windowHeight="15020" xr2:uid="{547CDAD2-781B-5F46-B1D6-E8080F6198FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="63">
   <si>
     <t>Lieu</t>
   </si>
@@ -59,9 +59,6 @@
   <si>
     <t>Promouvoir tourisme
 Réouverture mine</t>
-  </si>
-  <si>
-    <t>Terres agricoles</t>
   </si>
   <si>
     <t>Réouverture mine
@@ -84,10 +81,6 @@
     <t xml:space="preserve">Promouvoir tourisme </t>
   </si>
   <si>
-    <t>Terres agricoles 
-Ouverture usines</t>
-  </si>
-  <si>
     <t>Promouvoir tourisme
 Coopératives féminines</t>
   </si>
@@ -99,13 +92,6 @@
     <t xml:space="preserve">Réouverture mine </t>
   </si>
   <si>
-    <t>Terres agricoles 
-Projets d'élevage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terres agricoles </t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -114,25 +100,10 @@
   </si>
   <si>
     <t xml:space="preserve">Réouverture mine 
-Terres agricoles 
-Promouvoir tourisme </t>
-  </si>
-  <si>
-    <t>Terres agricoles
-Ouverture usines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réouverture mine 
 </t>
   </si>
   <si>
     <t>Entreprises privées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terres agricoles 
-Réouverture mine 
-Promouvoir tourisme 
-Coopératives féminines </t>
   </si>
   <si>
     <t xml:space="preserve">Ouverture usines  </t>
@@ -146,10 +117,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Promouvoir tourisme 
-Terrains agricoles </t>
-  </si>
-  <si>
     <t>Promouvoir tourisme 
 Restauration minière</t>
   </si>
@@ -158,66 +125,10 @@
 Promouvoir tourisme</t>
   </si>
   <si>
-    <t>Terres agricoles
-Coopératives féminines
-Ouverture usines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terres agricoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terres agricoles  
-Société privée 
-Promouvoir tourisme 
-Coopératives féminines </t>
-  </si>
-  <si>
-    <t>Terres agricoles
-Ouverture usines 
-Coopératives féminines</t>
-  </si>
-  <si>
-    <t>Terres agricoles 
-Coopératives féminines 
-Projets d'élevage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Promouvoir tourisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ouverture usines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terres agricoles
-Ouverture usines </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terres agricoles
-Ouverture usines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terres agricoles
-Ouverture usines 
-Promouvoir tourisme </t>
-  </si>
-  <si>
-    <t>Réseau internet
-Terres agricoles 
-Promouvoir tourisme</t>
-  </si>
-  <si>
-    <t>Promouvoir tourisme 
-Terres agricoles
-Ouverture usines</t>
-  </si>
-  <si>
     <t xml:space="preserve">Promouvoir tourisme  </t>
   </si>
   <si>
     <t>Ouverture usines</t>
-  </si>
-  <si>
-    <t>Projets d'élevage</t>
   </si>
   <si>
     <t>Salaires élevés</t>
@@ -253,62 +164,136 @@
 Encourager artisans</t>
   </si>
   <si>
-    <t>Terres agricoles
+    <t>Promouvoir tourisme 
+Coopératives féminines</t>
+  </si>
+  <si>
+    <t>Promouvoir tourisme  
+Coopératives féminines</t>
+  </si>
+  <si>
+    <t>Ouverture usines
+Coopératives féminines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coopératives féminines
+</t>
+  </si>
+  <si>
+    <t>Promouvoir agriculture
+Ouverture usines</t>
+  </si>
+  <si>
+    <t>Promouvoir agriculture
 Réouverture mine
 Promouvoir tourisme
 Coopératives féminines
 Ouverture usines</t>
   </si>
   <si>
-    <t>Promouvoir tourisme 
-Coopératives féminines</t>
-  </si>
-  <si>
-    <t>Terres agricoles 
+    <t>Promouvoir agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réouverture mine 
+Promouvoir agriculture 
+Promouvoir tourisme </t>
+  </si>
+  <si>
+    <t>Promouvoir agriculture 
+Ouverture usines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promouvoir agriculture 
+Réouverture mine 
+Promouvoir tourisme 
+Coopératives féminines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promouvoir tourisme 
+Promouvoir agriculture </t>
+  </si>
+  <si>
+    <t>Promouvoir agriculture
+Coopératives féminines
+Ouverture usines</t>
+  </si>
+  <si>
+    <t>Promouvoir agriculture 
 Salaires élevé
 Coopératives féminines</t>
   </si>
   <si>
-    <t>Promouvoir tourisme  
+    <t xml:space="preserve">Promouvoir agriculture
+Coopératives féminines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promouvoir agriculture  
+Société privée 
+Promouvoir tourisme 
+Coopératives féminines </t>
+  </si>
+  <si>
+    <t>Promouvoir agriculture
+Ouverture usines 
 Coopératives féminines</t>
   </si>
   <si>
-    <t xml:space="preserve">Terres agricoles 
+    <t xml:space="preserve">Promouvoir agriculture
+Ouverture usines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promouvoir agriculture 
 Promouvoir tourisme 
 Coopératives féminines
 Plantation reboisement  </t>
   </si>
   <si>
-    <t>Terres agricoles
+    <t>Promouvoir agriculture
 Ouverture usines
 Promouvoir tourisme 
 Coopératives féminines</t>
   </si>
   <si>
-    <t>Terres agricoles
+    <t>Promouvoir agriculture
 Coopératives féminines
 Promouvoir tourisme</t>
   </si>
   <si>
-    <t>Ouverture usines
-Coopératives féminines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terres agricoles
+    <t xml:space="preserve">Promouvoir agriculture
+Ouverture usines 
+Promouvoir tourisme </t>
+  </si>
+  <si>
+    <t>Réseau internet
+Promouvoir agriculture 
+Promouvoir tourisme</t>
+  </si>
+  <si>
+    <t>Promouvoir tourisme 
+Promouvoir agriculture
+Ouverture usines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promouvoir agriculture
 Ouverture usines 
 Coopératives féminines
 Promouvoir tourisme </t>
   </si>
   <si>
-    <t xml:space="preserve">Coopératives féminines
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projets d'élevage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terres agricoles 
-Projets d'élevage </t>
+    <t>Promouvoir agriculture 
+Promouvoir élevage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promouvoir agriculture
+Promouvoir élevage </t>
+  </si>
+  <si>
+    <t>Promouvoir agriculture 
+Coopératives féminines 
+Promouvoir élevage</t>
+  </si>
+  <si>
+    <t>Promouvoir élevage</t>
   </si>
 </sst>
 </file>
@@ -699,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A0F5F7-9E72-074F-9C88-DD5EECA60CCA}">
   <dimension ref="D1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,7 +697,7 @@
   <sheetData>
     <row r="1" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -727,13 +712,13 @@
     </row>
     <row r="2" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3"/>
       <c r="K2" s="3"/>
@@ -741,7 +726,7 @@
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -755,7 +740,7 @@
     </row>
     <row r="4" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
@@ -769,13 +754,13 @@
     </row>
     <row r="5" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3"/>
       <c r="K5" s="3"/>
@@ -783,13 +768,13 @@
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3"/>
       <c r="K6" s="3"/>
@@ -797,13 +782,13 @@
     </row>
     <row r="7" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3"/>
       <c r="K7" s="3"/>
@@ -811,13 +796,13 @@
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3"/>
       <c r="K8" s="3"/>
@@ -825,7 +810,7 @@
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -837,13 +822,13 @@
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="3"/>
       <c r="K10" s="3"/>
@@ -851,13 +836,13 @@
     </row>
     <row r="11" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3"/>
       <c r="K11" s="3"/>
@@ -865,7 +850,7 @@
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -877,13 +862,13 @@
     </row>
     <row r="13" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3"/>
       <c r="K13" s="3"/>
@@ -891,13 +876,13 @@
     </row>
     <row r="14" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3"/>
       <c r="K14" s="3"/>
@@ -905,13 +890,13 @@
     </row>
     <row r="15" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3"/>
       <c r="K15" s="3"/>
@@ -919,13 +904,13 @@
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="3"/>
       <c r="K16" s="3"/>
@@ -933,7 +918,7 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
@@ -945,13 +930,13 @@
     </row>
     <row r="18" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3"/>
       <c r="K18" s="3"/>
@@ -959,13 +944,13 @@
     </row>
     <row r="19" spans="4:12" ht="70" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3"/>
       <c r="K19" s="3"/>
@@ -973,13 +958,13 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
@@ -987,13 +972,13 @@
     </row>
     <row r="21" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
@@ -1001,7 +986,7 @@
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
@@ -1013,7 +998,7 @@
     </row>
     <row r="23" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2</v>
@@ -1027,7 +1012,7 @@
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>5</v>
@@ -1039,13 +1024,13 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3"/>
       <c r="K25" s="3"/>
@@ -1053,13 +1038,13 @@
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
@@ -1067,13 +1052,13 @@
     </row>
     <row r="27" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H27" s="3"/>
       <c r="K27" s="3"/>
@@ -1081,7 +1066,7 @@
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>2</v>
@@ -1093,13 +1078,13 @@
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H29" s="3"/>
       <c r="K29" s="3"/>
@@ -1107,13 +1092,13 @@
     </row>
     <row r="30" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H30" s="3"/>
       <c r="K30" s="3"/>
@@ -1121,13 +1106,13 @@
     </row>
     <row r="31" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H31" s="3"/>
       <c r="K31" s="3"/>
@@ -1135,7 +1120,7 @@
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>2</v>
@@ -1147,7 +1132,7 @@
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
@@ -1159,7 +1144,7 @@
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>2</v>
@@ -1171,13 +1156,13 @@
     </row>
     <row r="35" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
@@ -1185,13 +1170,13 @@
     </row>
     <row r="36" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H36" s="3"/>
       <c r="K36" s="3"/>
@@ -1199,13 +1184,13 @@
     </row>
     <row r="37" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H37" s="3"/>
       <c r="K37" s="3"/>
@@ -1213,7 +1198,7 @@
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>2</v>
@@ -1225,13 +1210,13 @@
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H39" s="3"/>
       <c r="K39" s="3"/>
@@ -1239,13 +1224,13 @@
     </row>
     <row r="40" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H40" s="3"/>
       <c r="K40" s="3"/>
@@ -1253,13 +1238,13 @@
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H41" s="3"/>
       <c r="K41" s="3"/>
@@ -1267,13 +1252,13 @@
     </row>
     <row r="42" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
@@ -1281,13 +1266,13 @@
     </row>
     <row r="43" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H43" s="3"/>
       <c r="K43" s="3"/>
@@ -1295,13 +1280,13 @@
     </row>
     <row r="44" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H44" s="3"/>
       <c r="K44" s="3"/>
@@ -1309,13 +1294,13 @@
     </row>
     <row r="45" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H45" s="3"/>
       <c r="K45" s="3"/>
@@ -1323,13 +1308,13 @@
     </row>
     <row r="46" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H46" s="3"/>
       <c r="K46" s="3"/>
@@ -1337,13 +1322,13 @@
     </row>
     <row r="47" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
@@ -1351,13 +1336,13 @@
     </row>
     <row r="48" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H48" s="3"/>
       <c r="K48" s="3"/>
@@ -1365,13 +1350,13 @@
     </row>
     <row r="49" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H49" s="3"/>
       <c r="K49" s="3"/>
@@ -1379,7 +1364,7 @@
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>5</v>
@@ -1391,7 +1376,7 @@
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>5</v>
@@ -1403,13 +1388,13 @@
     </row>
     <row r="52" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H52" s="3"/>
       <c r="K52" s="3"/>
@@ -1417,13 +1402,13 @@
     </row>
     <row r="53" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="3"/>
       <c r="K53" s="3"/>
@@ -1431,7 +1416,7 @@
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>5</v>
@@ -1443,13 +1428,13 @@
     </row>
     <row r="55" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H55" s="3"/>
       <c r="K55" s="3"/>
@@ -1457,13 +1442,13 @@
     </row>
     <row r="56" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="3"/>
       <c r="K56" s="3"/>
@@ -1471,13 +1456,13 @@
     </row>
     <row r="57" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H57" s="3"/>
       <c r="K57" s="3"/>
@@ -1485,13 +1470,13 @@
     </row>
     <row r="58" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H58" s="3"/>
       <c r="K58" s="3"/>
@@ -1499,13 +1484,13 @@
     </row>
     <row r="59" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H59" s="3"/>
       <c r="K59" s="3"/>
@@ -1513,13 +1498,13 @@
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H60" s="3"/>
       <c r="K60" s="3"/>
@@ -1527,13 +1512,13 @@
     </row>
     <row r="61" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H61" s="3"/>
       <c r="K61" s="3"/>
@@ -1541,13 +1526,13 @@
     </row>
     <row r="62" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H62" s="3"/>
       <c r="K62" s="3"/>
@@ -1555,13 +1540,13 @@
     </row>
     <row r="63" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
@@ -1569,13 +1554,13 @@
     </row>
     <row r="64" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H64" s="3"/>
       <c r="K64" s="3"/>
@@ -1583,7 +1568,7 @@
     </row>
     <row r="65" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>2</v>
@@ -1595,13 +1580,13 @@
     </row>
     <row r="66" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H66" s="3"/>
       <c r="K66" s="3"/>
@@ -1609,7 +1594,7 @@
     </row>
     <row r="67" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>5</v>
@@ -1621,13 +1606,13 @@
     </row>
     <row r="68" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H68" s="3"/>
       <c r="K68" s="3"/>
@@ -1635,13 +1620,13 @@
     </row>
     <row r="69" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H69" s="3"/>
       <c r="K69" s="3"/>
@@ -1649,7 +1634,7 @@
     </row>
     <row r="70" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>5</v>
@@ -1661,13 +1646,13 @@
     </row>
     <row r="71" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H71" s="3"/>
       <c r="K71" s="3"/>
@@ -1675,7 +1660,7 @@
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -1687,13 +1672,13 @@
     </row>
     <row r="73" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H73" s="3"/>
       <c r="K73" s="3"/>
@@ -1701,13 +1686,13 @@
     </row>
     <row r="74" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H74" s="3"/>
       <c r="K74" s="3"/>
@@ -1715,41 +1700,39 @@
     </row>
     <row r="75" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="4:12" ht="28" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="F76" s="3"/>
       <c r="H76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H77" s="3"/>
       <c r="K77" s="3"/>
@@ -1757,7 +1740,7 @@
     </row>
     <row r="78" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>5</v>
@@ -1769,13 +1752,13 @@
     </row>
     <row r="79" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H79" s="3"/>
       <c r="K79" s="3"/>
@@ -1783,13 +1766,13 @@
     </row>
     <row r="80" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
@@ -1797,13 +1780,13 @@
     </row>
     <row r="81" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H81" s="3"/>
       <c r="K81" s="3"/>
@@ -1811,13 +1794,13 @@
     </row>
     <row r="82" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H82" s="3"/>
       <c r="K82" s="3"/>
@@ -1825,13 +1808,13 @@
     </row>
     <row r="83" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H83" s="3"/>
       <c r="K83" s="3"/>
@@ -1839,7 +1822,7 @@
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>5</v>
@@ -1851,7 +1834,7 @@
     </row>
     <row r="85" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>5</v>
@@ -1863,7 +1846,7 @@
     </row>
     <row r="86" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>5</v>
@@ -1875,13 +1858,13 @@
     </row>
     <row r="87" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H87" s="3"/>
       <c r="K87" s="3"/>
@@ -1889,13 +1872,13 @@
     </row>
     <row r="88" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H88" s="3"/>
       <c r="K88" s="3"/>
@@ -1903,13 +1886,13 @@
     </row>
     <row r="89" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H89" s="3"/>
       <c r="K89" s="3"/>
@@ -1917,13 +1900,13 @@
     </row>
     <row r="90" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H90" s="3"/>
       <c r="K90" s="3"/>
@@ -1931,13 +1914,13 @@
     </row>
     <row r="91" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H91" s="3"/>
       <c r="K91" s="3"/>
@@ -1945,13 +1928,13 @@
     </row>
     <row r="92" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H92" s="3"/>
       <c r="K92" s="3"/>
@@ -1959,13 +1942,13 @@
     </row>
     <row r="93" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H93" s="3"/>
       <c r="K93" s="3"/>
@@ -1973,13 +1956,13 @@
     </row>
     <row r="94" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H94" s="3"/>
       <c r="K94" s="3"/>
@@ -1987,13 +1970,13 @@
     </row>
     <row r="95" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H95" s="3"/>
       <c r="K95" s="3"/>
@@ -2001,13 +1984,13 @@
     </row>
     <row r="96" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H96" s="3"/>
       <c r="K96" s="3"/>
@@ -2015,13 +1998,13 @@
     </row>
     <row r="97" spans="4:12" ht="28" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H97" s="3"/>
       <c r="K97" s="3"/>
@@ -2029,13 +2012,13 @@
     </row>
     <row r="98" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H98" s="3"/>
       <c r="K98" s="3"/>
@@ -2043,13 +2026,13 @@
     </row>
     <row r="99" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H99" s="3"/>
       <c r="K99" s="3"/>
@@ -2057,7 +2040,7 @@
     </row>
     <row r="100" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -2069,13 +2052,13 @@
     </row>
     <row r="101" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H101" s="3"/>
       <c r="K101" s="3"/>
@@ -2083,13 +2066,13 @@
     </row>
     <row r="102" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H102" s="3"/>
       <c r="K102" s="3"/>
@@ -2097,7 +2080,7 @@
     </row>
     <row r="103" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>5</v>
@@ -2109,13 +2092,13 @@
     </row>
     <row r="104" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H104" s="3"/>
       <c r="K104" s="3"/>
@@ -2123,13 +2106,13 @@
     </row>
     <row r="105" spans="4:12" ht="42" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H105" s="3"/>
       <c r="K105" s="3"/>
@@ -2137,13 +2120,13 @@
     </row>
     <row r="106" spans="4:12" ht="56" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H106" s="3"/>
       <c r="K106" s="3"/>
@@ -2151,7 +2134,7 @@
     </row>
     <row r="107" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>2</v>
@@ -2163,7 +2146,7 @@
     </row>
     <row r="108" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>2</v>
@@ -2175,7 +2158,7 @@
     </row>
     <row r="109" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>2</v>
@@ -2187,7 +2170,7 @@
     </row>
     <row r="110" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>2</v>
@@ -2199,7 +2182,7 @@
     </row>
     <row r="111" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>2</v>
@@ -2211,7 +2194,7 @@
     </row>
     <row r="112" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>2</v>
@@ -2223,7 +2206,7 @@
     </row>
     <row r="113" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>2</v>
@@ -2235,7 +2218,7 @@
     </row>
     <row r="114" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>2</v>
@@ -2247,7 +2230,7 @@
     </row>
     <row r="115" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>2</v>
@@ -2259,7 +2242,7 @@
     </row>
     <row r="116" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>2</v>
@@ -2271,7 +2254,7 @@
     </row>
     <row r="117" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>2</v>
@@ -2283,7 +2266,7 @@
     </row>
     <row r="118" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>2</v>
@@ -2295,7 +2278,7 @@
     </row>
     <row r="119" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>2</v>
@@ -2307,7 +2290,7 @@
     </row>
     <row r="120" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>2</v>
@@ -2319,7 +2302,7 @@
     </row>
     <row r="121" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>2</v>
@@ -2331,7 +2314,7 @@
     </row>
     <row r="122" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>2</v>
@@ -2343,7 +2326,7 @@
     </row>
     <row r="123" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>2</v>
@@ -2355,7 +2338,7 @@
     </row>
     <row r="124" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>2</v>
@@ -2367,7 +2350,7 @@
     </row>
     <row r="125" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>2</v>
@@ -2379,7 +2362,7 @@
     </row>
     <row r="126" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>2</v>
@@ -2391,7 +2374,7 @@
     </row>
     <row r="127" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>2</v>
@@ -2403,7 +2386,7 @@
     </row>
     <row r="128" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>2</v>
@@ -2415,7 +2398,7 @@
     </row>
     <row r="129" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>2</v>
@@ -2427,13 +2410,13 @@
     </row>
     <row r="130" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H130" s="4"/>
       <c r="K130" s="3"/>
@@ -2441,7 +2424,7 @@
     </row>
     <row r="131" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>2</v>
@@ -2453,7 +2436,7 @@
     </row>
     <row r="132" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>2</v>
@@ -2465,7 +2448,7 @@
     </row>
     <row r="133" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>2</v>
@@ -2477,7 +2460,7 @@
     </row>
     <row r="134" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>2</v>
@@ -2489,7 +2472,7 @@
     </row>
     <row r="135" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>2</v>
@@ -2501,7 +2484,7 @@
     </row>
     <row r="136" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>2</v>
@@ -2513,7 +2496,7 @@
     </row>
     <row r="137" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>2</v>
@@ -2525,7 +2508,7 @@
     </row>
     <row r="138" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>2</v>
@@ -2537,7 +2520,7 @@
     </row>
     <row r="139" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>2</v>
@@ -2549,13 +2532,13 @@
     </row>
     <row r="140" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H140" s="4"/>
       <c r="K140" s="3"/>
@@ -2563,7 +2546,7 @@
     </row>
     <row r="141" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>2</v>
@@ -2575,7 +2558,7 @@
     </row>
     <row r="142" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>2</v>
@@ -2587,7 +2570,7 @@
     </row>
     <row r="143" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>2</v>
@@ -2599,7 +2582,7 @@
     </row>
     <row r="144" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>2</v>
@@ -2611,7 +2594,7 @@
     </row>
     <row r="145" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>2</v>
@@ -2623,7 +2606,7 @@
     </row>
     <row r="146" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>2</v>
@@ -2635,7 +2618,7 @@
     </row>
     <row r="147" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>2</v>
@@ -2647,7 +2630,7 @@
     </row>
     <row r="148" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>2</v>
@@ -2659,7 +2642,7 @@
     </row>
     <row r="149" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>2</v>
@@ -2671,7 +2654,7 @@
     </row>
     <row r="150" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>2</v>
@@ -2683,7 +2666,7 @@
     </row>
     <row r="151" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>2</v>
@@ -2695,7 +2678,7 @@
     </row>
     <row r="152" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>2</v>
@@ -2707,7 +2690,7 @@
     </row>
     <row r="153" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="4"/>
@@ -2717,7 +2700,7 @@
     </row>
     <row r="154" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>2</v>
@@ -2729,7 +2712,7 @@
     </row>
     <row r="155" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>2</v>
@@ -2741,7 +2724,7 @@
     </row>
     <row r="156" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>2</v>
@@ -2753,7 +2736,7 @@
     </row>
     <row r="157" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>2</v>
@@ -2765,7 +2748,7 @@
     </row>
     <row r="158" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>2</v>
@@ -2777,7 +2760,7 @@
     </row>
     <row r="159" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>2</v>
@@ -2789,7 +2772,7 @@
     </row>
     <row r="160" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>2</v>
@@ -2801,7 +2784,7 @@
     </row>
     <row r="161" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>2</v>
@@ -2813,7 +2796,7 @@
     </row>
     <row r="162" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>2</v>
@@ -2825,7 +2808,7 @@
     </row>
     <row r="163" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>2</v>
@@ -2837,13 +2820,13 @@
     </row>
     <row r="164" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H164" s="4"/>
       <c r="K164" s="3"/>
@@ -2851,7 +2834,7 @@
     </row>
     <row r="165" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>2</v>
@@ -2863,13 +2846,13 @@
     </row>
     <row r="166" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H166" s="4"/>
       <c r="K166" s="3"/>
@@ -2877,7 +2860,7 @@
     </row>
     <row r="167" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>2</v>
@@ -2889,13 +2872,13 @@
     </row>
     <row r="168" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H168" s="4"/>
       <c r="K168" s="3"/>
@@ -2903,7 +2886,7 @@
     </row>
     <row r="169" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>5</v>
@@ -2915,7 +2898,7 @@
     </row>
     <row r="170" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>5</v>
@@ -2927,7 +2910,7 @@
     </row>
     <row r="171" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>5</v>
@@ -2939,7 +2922,7 @@
     </row>
     <row r="172" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>5</v>
@@ -2951,7 +2934,7 @@
     </row>
     <row r="173" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>5</v>
@@ -2963,7 +2946,7 @@
     </row>
     <row r="174" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>5</v>
@@ -2975,7 +2958,7 @@
     </row>
     <row r="175" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>5</v>
@@ -2987,7 +2970,7 @@
     </row>
     <row r="176" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>5</v>
@@ -2999,7 +2982,7 @@
     </row>
     <row r="177" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>5</v>
@@ -3011,7 +2994,7 @@
     </row>
     <row r="178" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>5</v>
@@ -3023,7 +3006,7 @@
     </row>
     <row r="179" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>5</v>
@@ -3035,7 +3018,7 @@
     </row>
     <row r="180" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>5</v>
@@ -3047,7 +3030,7 @@
     </row>
     <row r="181" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>5</v>
@@ -3059,7 +3042,7 @@
     </row>
     <row r="182" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>5</v>
@@ -3071,7 +3054,7 @@
     </row>
     <row r="183" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>5</v>
@@ -3083,13 +3066,13 @@
     </row>
     <row r="184" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H184" s="4"/>
       <c r="K184" s="3"/>
@@ -3097,7 +3080,7 @@
     </row>
     <row r="185" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>5</v>
@@ -3109,7 +3092,7 @@
     </row>
     <row r="186" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>5</v>
@@ -3121,7 +3104,7 @@
     </row>
     <row r="187" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>5</v>
@@ -3133,13 +3116,13 @@
     </row>
     <row r="188" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H188" s="4"/>
       <c r="K188" s="3"/>
@@ -3147,7 +3130,7 @@
     </row>
     <row r="189" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>5</v>
@@ -3159,7 +3142,7 @@
     </row>
     <row r="190" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>5</v>
@@ -3171,13 +3154,13 @@
     </row>
     <row r="191" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H191" s="4"/>
       <c r="K191" s="3"/>
@@ -3185,7 +3168,7 @@
     </row>
     <row r="192" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>5</v>
@@ -3197,13 +3180,13 @@
     </row>
     <row r="193" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H193" s="4"/>
       <c r="K193" s="3"/>
@@ -3211,7 +3194,7 @@
     </row>
     <row r="194" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>2</v>
@@ -3223,13 +3206,13 @@
     </row>
     <row r="195" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H195" s="4"/>
       <c r="K195" s="3"/>
@@ -3237,13 +3220,13 @@
     </row>
     <row r="196" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H196" s="4"/>
       <c r="K196" s="3"/>
@@ -3251,7 +3234,7 @@
     </row>
     <row r="197" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>2</v>
@@ -3263,13 +3246,13 @@
     </row>
     <row r="198" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H198" s="4"/>
       <c r="K198" s="3"/>
@@ -3277,7 +3260,7 @@
     </row>
     <row r="199" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>2</v>
@@ -3289,7 +3272,7 @@
     </row>
     <row r="200" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>2</v>
@@ -3301,13 +3284,13 @@
     </row>
     <row r="201" spans="4:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H201" s="4"/>
       <c r="K201" s="3"/>
@@ -3315,7 +3298,7 @@
     </row>
     <row r="202" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>2</v>
@@ -3327,7 +3310,7 @@
     </row>
     <row r="203" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>2</v>
@@ -3339,13 +3322,13 @@
     </row>
     <row r="204" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H204" s="4"/>
       <c r="K204" s="3"/>
@@ -3353,7 +3336,7 @@
     </row>
     <row r="205" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>2</v>
@@ -3365,13 +3348,13 @@
     </row>
     <row r="206" spans="4:12" ht="34" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H206" s="4"/>
       <c r="K206" s="3"/>
@@ -3379,7 +3362,7 @@
     </row>
     <row r="207" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>2</v>
